--- a/ejercicio procedimiento analitico.xlsx
+++ b/ejercicio procedimiento analitico.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\DocumentosMensuales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E299ECD1-7727-43A9-9BE3-E705402C76B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224B9505-FCB4-4D32-88CE-5BAF2EF80227}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Redacción" sheetId="1" r:id="rId1"/>
@@ -278,7 +278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="145">
   <si>
     <t>Por el  Procedimiento Analítico o Pormenorizado, resolver el siguiente ejercicio en cuentas T</t>
   </si>
@@ -710,6 +710,9 @@
   </si>
   <si>
     <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                  </t>
+  </si>
+  <si>
+    <t>gyugiujolpl</t>
   </si>
 </sst>
 </file>
@@ -1157,11 +1160,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="40" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1172,29 +1193,11 @@
     <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3068,40 +3071,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
     </row>
     <row r="2" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D5" s="37"/>
@@ -3116,18 +3119,18 @@
     </row>
     <row r="6" spans="1:8" s="37" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="58">
+      <c r="A8" s="61">
         <v>1</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -3144,7 +3147,7 @@
       <c r="H8" s="38"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -3159,7 +3162,7 @@
       <c r="H9" s="38"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="8" t="s">
         <v>65</v>
       </c>
@@ -3174,7 +3177,7 @@
       <c r="H10" s="38"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="58"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="8" t="s">
         <v>66</v>
       </c>
@@ -3189,7 +3192,7 @@
       <c r="H11" s="38"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="58"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
         <v>67</v>
@@ -3228,21 +3231,21 @@
       <c r="H14" s="38"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="58">
+      <c r="A15" s="61">
         <v>2</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="8" t="s">
         <v>71</v>
       </c>
@@ -3256,7 +3259,7 @@
       <c r="H16" s="38"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="8" t="s">
         <v>72</v>
       </c>
@@ -3271,7 +3274,7 @@
       <c r="H17" s="38"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="58"/>
+      <c r="A18" s="61"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8" t="s">
         <v>9</v>
@@ -3286,7 +3289,7 @@
       <c r="H18" s="40"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="38"/>
@@ -3312,21 +3315,21 @@
       <c r="H20" s="38"/>
     </row>
     <row r="21" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="58">
+      <c r="A21" s="61">
         <v>3</v>
       </c>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="8" t="s">
         <v>16</v>
       </c>
@@ -3340,7 +3343,7 @@
       <c r="H22" s="38"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="58"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="8" t="s">
         <v>72</v>
       </c>
@@ -3355,7 +3358,7 @@
       <c r="H23" s="38"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="58"/>
+      <c r="A24" s="61"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8" t="s">
         <v>9</v>
@@ -3370,7 +3373,7 @@
       <c r="H24" s="40"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
+      <c r="A25" s="61"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="38"/>
@@ -3395,21 +3398,21 @@
       <c r="H26" s="38"/>
     </row>
     <row r="27" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="58">
+      <c r="A27" s="61">
         <v>4</v>
       </c>
-      <c r="B27" s="63" t="s">
+      <c r="B27" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="58"/>
+      <c r="A28" s="61"/>
       <c r="B28" s="8" t="s">
         <v>74</v>
       </c>
@@ -3423,7 +3426,7 @@
       <c r="H28" s="38"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
+      <c r="A29" s="61"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
         <v>75</v>
@@ -3437,7 +3440,7 @@
       <c r="H29" s="38"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="58"/>
+      <c r="A30" s="61"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
         <v>9</v>
@@ -3452,7 +3455,7 @@
       <c r="H30" s="40"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="58"/>
+      <c r="A31" s="61"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="38"/>
@@ -3477,21 +3480,21 @@
       <c r="H32" s="38"/>
     </row>
     <row r="33" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="58">
+      <c r="A33" s="61">
         <v>5</v>
       </c>
-      <c r="B33" s="63" t="s">
+      <c r="B33" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="58"/>
+      <c r="A34" s="61"/>
       <c r="B34" s="8" t="s">
         <v>9</v>
       </c>
@@ -3506,7 +3509,7 @@
       <c r="H34" s="38"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="58"/>
+      <c r="A35" s="61"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8" t="s">
         <v>72</v>
@@ -3521,7 +3524,7 @@
       <c r="H35" s="38"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="58"/>
+      <c r="A36" s="61"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8" t="s">
         <v>76</v>
@@ -3535,7 +3538,7 @@
       <c r="H36" s="40"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="58"/>
+      <c r="A37" s="61"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="38"/>
@@ -3560,21 +3563,21 @@
       <c r="H38" s="38"/>
     </row>
     <row r="39" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="58">
+      <c r="A39" s="61">
         <v>6</v>
       </c>
-      <c r="B39" s="63" t="s">
+      <c r="B39" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="C39" s="63"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="63"/>
-      <c r="H39" s="63"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="64"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="58"/>
+      <c r="A40" s="61"/>
       <c r="B40" s="8" t="s">
         <v>77</v>
       </c>
@@ -3588,21 +3591,21 @@
       <c r="H40" s="38"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="58"/>
+      <c r="A41" s="61"/>
       <c r="B41" s="8" t="s">
         <v>78</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="38"/>
-      <c r="E41" s="60">
+      <c r="E41" s="66">
         <v>47000</v>
       </c>
-      <c r="F41" s="60"/>
+      <c r="F41" s="66"/>
       <c r="G41" s="39"/>
       <c r="H41" s="38"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="58"/>
+      <c r="A42" s="61"/>
       <c r="B42" s="8" t="s">
         <v>72</v>
       </c>
@@ -3617,7 +3620,7 @@
       <c r="H42" s="38"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="58"/>
+      <c r="A43" s="61"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8" t="s">
         <v>9</v>
@@ -3632,7 +3635,7 @@
       <c r="H43" s="40"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="58"/>
+      <c r="A44" s="61"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="38"/>
@@ -3657,21 +3660,21 @@
       <c r="H45" s="38"/>
     </row>
     <row r="46" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="58">
+      <c r="A46" s="61">
         <v>7</v>
       </c>
-      <c r="B46" s="63" t="s">
+      <c r="B46" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="C46" s="63"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
-      <c r="G46" s="63"/>
-      <c r="H46" s="63"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="64"/>
+      <c r="H46" s="64"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="58"/>
+      <c r="A47" s="61"/>
       <c r="B47" s="8" t="s">
         <v>9</v>
       </c>
@@ -3686,7 +3689,7 @@
       <c r="H47" s="38"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="58"/>
+      <c r="A48" s="61"/>
       <c r="B48" s="8" t="s">
         <v>24</v>
       </c>
@@ -3701,7 +3704,7 @@
       <c r="H48" s="38"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="58"/>
+      <c r="A49" s="61"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8" t="s">
         <v>23</v>
@@ -3715,7 +3718,7 @@
       <c r="H49" s="38"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="58"/>
+      <c r="A50" s="61"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8" t="s">
         <v>79</v>
@@ -3730,7 +3733,7 @@
       <c r="H50" s="38"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="58"/>
+      <c r="A51" s="61"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8" t="s">
         <v>80</v>
@@ -3745,7 +3748,7 @@
       <c r="H51" s="40"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="58"/>
+      <c r="A52" s="61"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="38"/>
@@ -3770,29 +3773,29 @@
       <c r="H53" s="38"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="61" t="s">
+      <c r="B54" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="C54" s="61"/>
-      <c r="D54" s="61"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="61"/>
-      <c r="G54" s="61"/>
-      <c r="H54" s="61"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="67"/>
+      <c r="H54" s="67"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="62" t="s">
+      <c r="B55" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="C55" s="62"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="62"/>
-      <c r="F55" s="62"/>
-      <c r="G55" s="62"/>
-      <c r="H55" s="62"/>
+      <c r="C55" s="68"/>
+      <c r="D55" s="68"/>
+      <c r="E55" s="68"/>
+      <c r="F55" s="68"/>
+      <c r="G55" s="68"/>
+      <c r="H55" s="68"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="58" t="s">
+      <c r="A56" s="61" t="s">
         <v>111</v>
       </c>
       <c r="B56" t="s">
@@ -3807,7 +3810,7 @@
       <c r="H56" s="38"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="58"/>
+      <c r="A57" s="61"/>
       <c r="C57" t="s">
         <v>42</v>
       </c>
@@ -3820,7 +3823,7 @@
       <c r="H57" s="40"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="58"/>
+      <c r="A58" s="61"/>
       <c r="D58" s="38"/>
       <c r="E58" s="39">
         <f>SUM(E56:E57)</f>
@@ -3841,21 +3844,21 @@
       <c r="H59" s="38"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="58" t="s">
+      <c r="A60" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="B60" s="59" t="s">
+      <c r="B60" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
-      <c r="E60" s="59"/>
-      <c r="F60" s="59"/>
-      <c r="G60" s="59"/>
-      <c r="H60" s="59"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="60"/>
+      <c r="G60" s="60"/>
+      <c r="H60" s="60"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="58"/>
+      <c r="A61" s="61"/>
       <c r="B61" t="s">
         <v>113</v>
       </c>
@@ -3868,7 +3871,7 @@
       <c r="H61" s="38"/>
     </row>
     <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="58"/>
+      <c r="A62" s="61"/>
       <c r="C62" t="s">
         <v>14</v>
       </c>
@@ -3881,7 +3884,7 @@
       <c r="H62" s="40"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="58"/>
+      <c r="A63" s="61"/>
       <c r="D63" s="38"/>
       <c r="E63" s="39">
         <f>SUM(E61:E62)</f>
@@ -3902,21 +3905,21 @@
       <c r="H64" s="38"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="58" t="s">
+      <c r="A65" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="B65" s="59" t="s">
+      <c r="B65" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="C65" s="59"/>
-      <c r="D65" s="59"/>
-      <c r="E65" s="59"/>
-      <c r="F65" s="59"/>
-      <c r="G65" s="59"/>
-      <c r="H65" s="59"/>
+      <c r="C65" s="60"/>
+      <c r="D65" s="60"/>
+      <c r="E65" s="60"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="58"/>
+      <c r="A66" s="61"/>
       <c r="B66" t="s">
         <v>115</v>
       </c>
@@ -3929,7 +3932,7 @@
       <c r="H66" s="38"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="58"/>
+      <c r="A67" s="61"/>
       <c r="B67" t="s">
         <v>115</v>
       </c>
@@ -3942,7 +3945,7 @@
       <c r="H67" s="38"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="58"/>
+      <c r="A68" s="61"/>
       <c r="B68" t="s">
         <v>115</v>
       </c>
@@ -3955,7 +3958,7 @@
       <c r="H68" s="38"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="58"/>
+      <c r="A69" s="61"/>
       <c r="B69" t="s">
         <v>115</v>
       </c>
@@ -3968,7 +3971,7 @@
       <c r="H69" s="38"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="58"/>
+      <c r="A70" s="61"/>
       <c r="B70" t="s">
         <v>115</v>
       </c>
@@ -3981,7 +3984,7 @@
       <c r="H70" s="38"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="58"/>
+      <c r="A71" s="61"/>
       <c r="C71" t="s">
         <v>116</v>
       </c>
@@ -3995,7 +3998,7 @@
       <c r="H71" s="38"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="58"/>
+      <c r="A72" s="61"/>
       <c r="C72" t="s">
         <v>117</v>
       </c>
@@ -4009,7 +4012,7 @@
       <c r="H72" s="38"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="58"/>
+      <c r="A73" s="61"/>
       <c r="C73" t="s">
         <v>74</v>
       </c>
@@ -4023,7 +4026,7 @@
       <c r="H73" s="38"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="58"/>
+      <c r="A74" s="61"/>
       <c r="C74" t="s">
         <v>47</v>
       </c>
@@ -4037,7 +4040,7 @@
       <c r="H74" s="38"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="58"/>
+      <c r="A75" s="61"/>
       <c r="C75" t="s">
         <v>77</v>
       </c>
@@ -4051,21 +4054,21 @@
       <c r="H75" s="38"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="58"/>
+      <c r="A76" s="61"/>
       <c r="C76" t="s">
         <v>118</v>
       </c>
       <c r="D76" s="38"/>
       <c r="E76" s="39"/>
       <c r="F76" s="38"/>
-      <c r="G76" s="60">
+      <c r="G76" s="66">
         <f>E70</f>
         <v>47000</v>
       </c>
-      <c r="H76" s="60"/>
+      <c r="H76" s="66"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="58"/>
+      <c r="A77" s="61"/>
       <c r="B77" t="s">
         <v>116</v>
       </c>
@@ -4078,7 +4081,7 @@
       <c r="H77" s="38"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="58"/>
+      <c r="A78" s="61"/>
       <c r="B78" t="s">
         <v>66</v>
       </c>
@@ -4091,7 +4094,7 @@
       <c r="H78" s="38"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="58"/>
+      <c r="A79" s="61"/>
       <c r="C79" t="s">
         <v>115</v>
       </c>
@@ -4105,7 +4108,7 @@
       <c r="H79" s="38"/>
     </row>
     <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="58"/>
+      <c r="A80" s="61"/>
       <c r="C80" t="s">
         <v>115</v>
       </c>
@@ -4119,7 +4122,7 @@
       <c r="H80" s="40"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="58"/>
+      <c r="A81" s="61"/>
       <c r="D81" s="38"/>
       <c r="E81" s="39">
         <f>SUM(E66:E80)</f>
@@ -4140,18 +4143,18 @@
       <c r="H82" s="38"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="59" t="s">
+      <c r="B83" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="C83" s="59"/>
-      <c r="D83" s="59"/>
-      <c r="E83" s="59"/>
-      <c r="F83" s="59"/>
-      <c r="G83" s="59"/>
-      <c r="H83" s="59"/>
+      <c r="C83" s="60"/>
+      <c r="D83" s="60"/>
+      <c r="E83" s="60"/>
+      <c r="F83" s="60"/>
+      <c r="G83" s="60"/>
+      <c r="H83" s="60"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="58" t="s">
+      <c r="A84" s="61" t="s">
         <v>123</v>
       </c>
       <c r="B84" t="s">
@@ -4166,7 +4169,7 @@
       <c r="H84" s="38"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="58"/>
+      <c r="A85" s="61"/>
       <c r="B85" t="s">
         <v>122</v>
       </c>
@@ -4179,7 +4182,7 @@
       <c r="H85" s="38"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="58"/>
+      <c r="A86" s="61"/>
       <c r="C86" t="s">
         <v>65</v>
       </c>
@@ -4193,7 +4196,7 @@
       <c r="H86" s="38"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="58"/>
+      <c r="A87" s="61"/>
       <c r="C87" t="s">
         <v>115</v>
       </c>
@@ -4207,7 +4210,7 @@
       <c r="H87" s="38"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="58"/>
+      <c r="A88" s="61"/>
       <c r="B88" t="s">
         <v>65</v>
       </c>
@@ -4220,7 +4223,7 @@
       <c r="H88" s="38"/>
     </row>
     <row r="89" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="58"/>
+      <c r="A89" s="61"/>
       <c r="C89" t="s">
         <v>122</v>
       </c>
@@ -4234,7 +4237,7 @@
       <c r="H89" s="40"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="58"/>
+      <c r="A90" s="61"/>
       <c r="D90" s="38"/>
       <c r="E90" s="39">
         <f>SUM(E84:E88)</f>
@@ -4255,18 +4258,18 @@
       <c r="H91" s="38"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="59" t="s">
+      <c r="B92" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="C92" s="59"/>
-      <c r="D92" s="59"/>
-      <c r="E92" s="59"/>
-      <c r="F92" s="59"/>
-      <c r="G92" s="59"/>
-      <c r="H92" s="59"/>
+      <c r="C92" s="60"/>
+      <c r="D92" s="60"/>
+      <c r="E92" s="60"/>
+      <c r="F92" s="60"/>
+      <c r="G92" s="60"/>
+      <c r="H92" s="60"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="58" t="s">
+      <c r="A93" s="61" t="s">
         <v>126</v>
       </c>
       <c r="B93" t="s">
@@ -4281,7 +4284,7 @@
       <c r="H93" s="38"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="58"/>
+      <c r="A94" s="61"/>
       <c r="B94" t="s">
         <v>125</v>
       </c>
@@ -4295,7 +4298,7 @@
       <c r="H94" s="38"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="58"/>
+      <c r="A95" s="61"/>
       <c r="C95" t="s">
         <v>122</v>
       </c>
@@ -4309,7 +4312,7 @@
       <c r="H95" s="38"/>
     </row>
     <row r="96" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="58"/>
+      <c r="A96" s="61"/>
       <c r="C96" t="s">
         <v>125</v>
       </c>
@@ -4323,7 +4326,7 @@
       <c r="H96" s="40"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="58"/>
+      <c r="A97" s="61"/>
       <c r="D97" s="38"/>
       <c r="E97" s="39">
         <f>SUM(E93:E96)</f>
@@ -4344,18 +4347,18 @@
       <c r="H98" s="38"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="59" t="s">
+      <c r="B99" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="C99" s="59"/>
-      <c r="D99" s="59"/>
-      <c r="E99" s="59"/>
-      <c r="F99" s="59"/>
-      <c r="G99" s="59"/>
-      <c r="H99" s="59"/>
+      <c r="C99" s="60"/>
+      <c r="D99" s="60"/>
+      <c r="E99" s="60"/>
+      <c r="F99" s="60"/>
+      <c r="G99" s="60"/>
+      <c r="H99" s="60"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="58" t="s">
+      <c r="A100" s="61" t="s">
         <v>129</v>
       </c>
       <c r="B100" t="s">
@@ -4371,7 +4374,7 @@
       <c r="H100" s="38"/>
     </row>
     <row r="101" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="58"/>
+      <c r="A101" s="61"/>
       <c r="C101" t="s">
         <v>128</v>
       </c>
@@ -4385,7 +4388,7 @@
       <c r="H101" s="40"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="58"/>
+      <c r="A102" s="61"/>
       <c r="D102" s="38"/>
       <c r="E102" s="39">
         <f>E100</f>
@@ -4400,24 +4403,11 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="A46:A52"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="A84:A90"/>
+    <mergeCell ref="B92:H92"/>
+    <mergeCell ref="A93:A97"/>
+    <mergeCell ref="B99:H99"/>
     <mergeCell ref="G76:H76"/>
     <mergeCell ref="A65:A81"/>
     <mergeCell ref="B65:H65"/>
@@ -4427,11 +4417,24 @@
     <mergeCell ref="A56:A58"/>
     <mergeCell ref="B60:H60"/>
     <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A100:A102"/>
-    <mergeCell ref="A84:A90"/>
-    <mergeCell ref="B92:H92"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B99:H99"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="B46:H46"/>
+    <mergeCell ref="A46:A52"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4460,18 +4463,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="F2" s="70" t="s">
+      <c r="C2" s="69"/>
+      <c r="F2" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="70"/>
-      <c r="J2" s="70" t="s">
+      <c r="G2" s="69"/>
+      <c r="J2" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="70"/>
+      <c r="K2" s="69"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -4619,18 +4622,18 @@
       <c r="K9" s="10"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="70"/>
-      <c r="F11" s="70" t="s">
+      <c r="C11" s="69"/>
+      <c r="F11" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="70"/>
-      <c r="J11" s="70" t="s">
+      <c r="G11" s="69"/>
+      <c r="J11" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="70"/>
+      <c r="K11" s="69"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -4714,18 +4717,18 @@
       <c r="K15" s="10"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="F17" s="70" t="s">
+      <c r="C17" s="69"/>
+      <c r="F17" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="70"/>
-      <c r="J17" s="70" t="s">
+      <c r="G17" s="69"/>
+      <c r="J17" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="70"/>
+      <c r="K17" s="69"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -4811,18 +4814,18 @@
       <c r="K21" s="10"/>
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="69" t="s">
+      <c r="B23" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="69"/>
-      <c r="F23" s="70" t="s">
+      <c r="C23" s="70"/>
+      <c r="F23" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="70"/>
-      <c r="J23" s="70" t="s">
+      <c r="G23" s="69"/>
+      <c r="J23" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="70"/>
+      <c r="K23" s="69"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
@@ -4885,21 +4888,21 @@
       <c r="K27" s="10"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I28" s="59" t="s">
+      <c r="I28" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
     </row>
     <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="69" t="s">
+      <c r="B29" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="69"/>
-      <c r="F29" s="70" t="s">
+      <c r="C29" s="70"/>
+      <c r="F29" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="70"/>
+      <c r="G29" s="69"/>
       <c r="I29" s="11"/>
       <c r="J29" s="71" t="s">
         <v>21</v>
@@ -4973,18 +4976,18 @@
       <c r="K33" s="14"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="69" t="s">
+      <c r="B35" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="69"/>
-      <c r="F35" s="70" t="s">
+      <c r="C35" s="70"/>
+      <c r="F35" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="G35" s="70"/>
-      <c r="J35" s="70" t="s">
+      <c r="G35" s="69"/>
+      <c r="J35" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="K35" s="70"/>
+      <c r="K35" s="69"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B36" s="8"/>
@@ -5037,10 +5040,10 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="69" t="s">
+      <c r="B38" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="69"/>
+      <c r="C38" s="70"/>
       <c r="F38" s="8"/>
       <c r="G38" s="10"/>
       <c r="I38" t="s">
@@ -5152,16 +5155,16 @@
     <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="8"/>
       <c r="C44" s="10"/>
-      <c r="F44" s="70" t="s">
+      <c r="F44" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="G44" s="70"/>
+      <c r="G44" s="69"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="70" t="s">
+      <c r="B45" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="70"/>
+      <c r="C45" s="69"/>
       <c r="F45" s="8">
         <f>C42</f>
         <v>147600</v>
@@ -5173,10 +5176,10 @@
       <c r="H45" t="s">
         <v>33</v>
       </c>
-      <c r="J45" s="70" t="s">
+      <c r="J45" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="K45" s="70"/>
+      <c r="K45" s="69"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B46" s="8"/>
@@ -5235,29 +5238,29 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="J23:K23"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="J11:K11"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="J29:K29"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.43" right="0.45" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5305,13 +5308,13 @@
       <c r="G2" s="73"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5671,7 +5674,7 @@
   <dimension ref="B1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5806,7 +5809,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
       <c r="H17" s="48" t="s">
         <v>99</v>
       </c>
@@ -5814,7 +5817,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
       <c r="H18" s="48" t="s">
         <v>100</v>
       </c>
@@ -5822,18 +5825,21 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>144</v>
+      </c>
       <c r="H19" s="48" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H20" s="49" t="s">
         <v>102</v>
       </c>
       <c r="I20" s="47"/>
     </row>
-    <row r="21" spans="8:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H21" s="51" t="s">
         <v>105</v>
       </c>
@@ -5841,7 +5847,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
       <c r="H22" s="48" t="s">
         <v>107</v>
       </c>
@@ -5856,7 +5862,8 @@
     <mergeCell ref="H15:I15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>